--- a/data/branch/data.xlsx
+++ b/data/branch/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,22 +442,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="str">
-        <v>34.27649833</v>
+        <v>34.1963675</v>
       </c>
       <c r="C2" t="str">
-        <v>134.08546139</v>
+        <v>134.04155944</v>
       </c>
       <c r="D2" t="str">
-        <v>山田支所</v>
+        <v>塩江支所</v>
       </c>
       <c r="E2" t="str">
-        <v>高松市川島本町191－2</v>
+        <v>高松市塩江町安原下第2号1645</v>
       </c>
       <c r="F2" t="str">
-        <v>087-848-0165</v>
+        <v>087-897-0131</v>
       </c>
       <c r="G2" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
@@ -480,22 +480,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="str">
-        <v>34.1963675</v>
+        <v>34.3840175</v>
       </c>
       <c r="C3" t="str">
-        <v>134.04155944</v>
+        <v>134.12656556</v>
       </c>
       <c r="D3" t="str">
-        <v>塩江支所</v>
+        <v>庵治支所</v>
       </c>
       <c r="E3" t="str">
-        <v>高松市塩江町安原下第2号1645</v>
+        <v>高松市庵治町6393-5</v>
       </c>
       <c r="F3" t="str">
-        <v>087-897-0131</v>
+        <v>087-871-3111</v>
       </c>
       <c r="G3" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
@@ -518,22 +518,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="str">
-        <v>34.3840175</v>
+        <v>34.24001194</v>
       </c>
       <c r="C4" t="str">
-        <v>134.12656556</v>
+        <v>134.01306889</v>
       </c>
       <c r="D4" t="str">
-        <v>庵治支所</v>
+        <v>香南支所</v>
       </c>
       <c r="E4" t="str">
-        <v>高松市庵治町6393-5</v>
+        <v>高松市香南町由佐1172</v>
       </c>
       <c r="F4" t="str">
-        <v>087-871-3111</v>
+        <v>087-879-3111</v>
       </c>
       <c r="G4" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
@@ -556,22 +556,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="str">
-        <v>34.24001194</v>
+        <v>34.1697325</v>
       </c>
       <c r="C5" t="str">
-        <v>134.01306889</v>
+        <v>134.08280667</v>
       </c>
       <c r="D5" t="str">
-        <v>香南支所</v>
+        <v>塩江支所　塩江連絡事務所</v>
       </c>
       <c r="E5" t="str">
-        <v>高松市香南町由佐1172</v>
+        <v>高松市塩江町安原上東394-2</v>
       </c>
       <c r="F5" t="str">
-        <v>087-879-3111</v>
+        <v>087-893-0220</v>
       </c>
       <c r="G5" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
@@ -594,22 +594,22 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="str">
-        <v>34.1697325</v>
+        <v>34.15046528</v>
       </c>
       <c r="C6" t="str">
-        <v>134.08280667</v>
+        <v>134.07662167</v>
       </c>
       <c r="D6" t="str">
-        <v>塩江支所　塩江連絡事務所</v>
+        <v>塩江支所　上西連絡事務所</v>
       </c>
       <c r="E6" t="str">
-        <v>高松市塩江町安原上東394-2</v>
+        <v>高松市塩江町上西乙549</v>
       </c>
       <c r="F6" t="str">
-        <v>087-893-0220</v>
+        <v>087-893-0311</v>
       </c>
       <c r="G6" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
@@ -627,50 +627,12 @@
         <v>17:00</v>
       </c>
       <c r="L6" t="str">
-        <v>国民の祝日に関する法律に規定する休日及び年末年始（１２月２９日から翌年の１月３日まで）は利用不可。</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>34.15046528</v>
-      </c>
-      <c r="C7" t="str">
-        <v>134.07662167</v>
-      </c>
-      <c r="D7" t="str">
-        <v>塩江支所　上西連絡事務所</v>
-      </c>
-      <c r="E7" t="str">
-        <v>高松市塩江町上西乙549</v>
-      </c>
-      <c r="F7" t="str">
-        <v>087-893-0311</v>
-      </c>
-      <c r="G7" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J7" t="str">
-        <v>08:30</v>
-      </c>
-      <c r="K7" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="L7" t="str">
         <v>国民の祝日に関する法律に規定する休日及び年末年始（１２月２９日から翌年の１月３日まで）は利用不可。</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>